--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1583227.216193543</v>
+        <v>-1588515.331688315</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13747720.00264618</v>
+        <v>13745950.06447493</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>203.5581695269265</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>236.8547406618657</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614708</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>90.49923596066733</v>
+        <v>12.94606197415887</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4079827447949</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,7 +959,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.22534545850596</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296807</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2462190293369</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>262.1078160207999</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.1423247430315</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>174.0666964693404</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>258.4110643428189</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>238.0222123080889</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1421,22 +1421,22 @@
         <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>144.8820096428162</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177847</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>31.86227748314579</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>50.08846869586947</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0004384157301</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>23.7489736478994</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>2.234758498032718</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>48.6732978485945</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059396</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838864</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828876</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161063</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696762</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431709</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.1666094545995</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643922</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931833</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390856</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147774</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804978</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922171</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367763</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920494</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947755</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>782.7305972265447</v>
+        <v>1797.92221131268</v>
       </c>
       <c r="C2" t="n">
-        <v>389.5550957294752</v>
+        <v>1797.92221131268</v>
       </c>
       <c r="D2" t="n">
-        <v>389.5550957294752</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="E2" t="n">
-        <v>389.5550957294752</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F2" t="n">
-        <v>376.701061299857</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.4956593947549</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.4956593947549</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>170.1312398443252</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>663.451531562854</v>
+        <v>588.487006042435</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.710316572946</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572946</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465274</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596796</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737745</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737745</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737745</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>1969.168657084283</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1969.168657084283</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.168657084283</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X2" t="n">
-        <v>1579.71605201734</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="Y2" t="n">
-        <v>1183.225342937942</v>
+        <v>1797.92221131268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021397</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622319</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837122</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291945999</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777317</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777317</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.4956593947549</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>43.4956593947549</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>43.4956593947549</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653837</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875476</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466457</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182854</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635809</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535678</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734586</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413228</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784295</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917582</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675937</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343101</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.3828263927946</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="C4" t="n">
-        <v>367.3828263927946</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="D4" t="n">
-        <v>211.7497132953093</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="E4" t="n">
-        <v>211.7497132953093</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953093</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>650.7132284616169</v>
+        <v>805.9724496535398</v>
       </c>
       <c r="W4" t="n">
-        <v>367.3828263927946</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="X4" t="n">
-        <v>367.3828263927946</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.3828263927946</v>
+        <v>522.6420475847174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.163570350601</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.163570350601</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="D5" t="n">
-        <v>909.722441567269</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="E5" t="n">
-        <v>507.1389166838135</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F5" t="n">
-        <v>494.2848822541953</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>485.1625307826026</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>161.0794803490932</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697128</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737745</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737745</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737745</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678795</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678795</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678795</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="V5" t="n">
-        <v>1666.162605382314</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.163570350601</v>
+        <v>678.2966927093157</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.163570350601</v>
+        <v>602.3114952764814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.163570350601</v>
+        <v>602.3114952764814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828433</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591873</v>
+        <v>555.1059253660266</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591873</v>
+        <v>1068.708603975715</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182854</v>
+        <v>1582.311282585403</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182854</v>
+        <v>1987.9326513018</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.6074841437407</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="C7" t="n">
-        <v>222.6074841437407</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="D7" t="n">
-        <v>222.6074841437407</v>
+        <v>522.561786482426</v>
       </c>
       <c r="E7" t="n">
-        <v>222.6074841437407</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>222.6074841437407</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>222.6074841437407</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>456.6878063607576</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="V7" t="n">
-        <v>456.6878063607576</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="W7" t="n">
-        <v>456.6878063607576</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="X7" t="n">
-        <v>222.6074841437407</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.6074841437407</v>
+        <v>678.1948995799112</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.953688967018</v>
+        <v>1003.385499290815</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>353.2546601492718</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2040.405329065674</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2040.405329065674</v>
+        <v>2189.823559148554</v>
       </c>
       <c r="V8" t="n">
-        <v>2040.405329065674</v>
+        <v>2189.823559148554</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.406294033961</v>
+        <v>2189.823559148554</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.953688967018</v>
+        <v>1800.37095408161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.953688967018</v>
+        <v>1403.880245002211</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>361.021642344264</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>361.021642344264</v>
       </c>
       <c r="W10" t="n">
-        <v>399.450245395098</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>165.3699231780811</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.3699231780811</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055463</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
         <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681063</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
         <v>655.7723833572339</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2864.893641007348</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2864.893641007348</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2594.58310685706</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="W11" t="n">
-        <v>2295.380346971541</v>
+        <v>2528.079890988294</v>
       </c>
       <c r="X11" t="n">
-        <v>2295.380346971541</v>
+        <v>2210.423561067545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.380346971541</v>
+        <v>1885.72912713434</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>398.930438183156</v>
+        <v>497.3392809709729</v>
       </c>
       <c r="C13" t="n">
         <v>398.930438183156</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457733</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127914</v>
+        <v>872.8795642628194</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901629</v>
+        <v>661.3454373401909</v>
       </c>
       <c r="X13" t="n">
-        <v>550.2462242203187</v>
+        <v>661.3454373401909</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.930438183156</v>
+        <v>610.7510245160803</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1318.972249543668</v>
+        <v>1738.383963389628</v>
       </c>
       <c r="C14" t="n">
-        <v>997.5930231927923</v>
+        <v>1417.004737038753</v>
       </c>
       <c r="D14" t="n">
-        <v>997.5930231927923</v>
+        <v>1103.359883401614</v>
       </c>
       <c r="E14" t="n">
-        <v>666.8057734555305</v>
+        <v>772.5726336643525</v>
       </c>
       <c r="F14" t="n">
-        <v>666.8057734555305</v>
+        <v>427.474470340524</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>86.10798997472099</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962826</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X14" t="n">
-        <v>1972.365154042076</v>
+        <v>2067.082433954831</v>
       </c>
       <c r="Y14" t="n">
-        <v>1647.670720108871</v>
+        <v>2067.082433954831</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.1147838330211</v>
+        <v>477.1322260092922</v>
       </c>
       <c r="C16" t="n">
-        <v>411.7059410452042</v>
+        <v>378.7233832214753</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939128</v>
+        <v>294.8865452701839</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,10 +5437,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1395.462980271466</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1231.540203585894</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.897686973989</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>823.7146169410069</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>823.7146169410069</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="X16" t="n">
-        <v>661.4305698701838</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.1147838330211</v>
+        <v>590.5439695543996</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
@@ -5507,16 +5507,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924227</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5537,28 +5537,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128482</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358935</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222416</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960414</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343054</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655146</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,31 +5972,31 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
         <v>2132.883732040978</v>
@@ -6008,25 +6008,25 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386234</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>702.529404369548</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1330.301053996229</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6470,16 +6470,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>358.2210070908127</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>841.787092989126</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463656</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057082</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230762</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189319</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076154</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495896</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230551</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741584</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786165</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423627</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315955</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174548</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042567</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038077</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076154</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965109</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991865</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237446</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123119</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546497</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.29939878346</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431882</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076154</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703945</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074069</v>
+        <v>225.4160927170971</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812067</v>
+        <v>501.1958531658797</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465411</v>
+        <v>799.1395520791266</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904821</v>
+        <v>982.3291861103357</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872939</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649518</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746639</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308581</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420495</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518094</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.88095068936</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395489</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000913</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124393</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584474</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,13 +7251,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
         <v>1458.313011372373</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,10 +7336,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>112.6101842924878</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>112.6101842924878</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,16 +7573,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7804,25 +7804,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>270.9731309060761</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.037695336357</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321635</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
@@ -8058,19 +8058,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>533.3182154539875</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886028</v>
+        <v>162.9122342875683</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321635</v>
+        <v>658.4862820353984</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115882</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269393</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>179.098947615633</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>452.0904133284578</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>186.0888404416877</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>223.122899967847</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9717,7 +9717,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O24" t="n">
-        <v>239.756709922914</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>288.3536975034273</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3304183063258</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>133.4455245943154</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>87.38927355146203</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.30527437862936</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>128.798929116969</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.71415948092167</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>54.95237714641478</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.0149338865429</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>80.69015312662486</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.03631273594988</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.30973484829864e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1204768.262301603</v>
+        <v>1203865.940880963</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1204768.262301603</v>
+        <v>1203865.940880963</v>
       </c>
     </row>
     <row r="4">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90166.08904667836</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90166.08904667839</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90166.08904667839</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79679.51171220039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79679.51171220037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90166.08904667842</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90166.08904667836</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90166.08904667833</v>
+      </c>
+      <c r="J2" t="n">
         <v>90166.08904667837</v>
-      </c>
-      <c r="C2" t="n">
-        <v>90166.08904667836</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90166.08904667836</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79679.51171220037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79679.51171220039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90166.08904667846</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90166.08904667843</v>
-      </c>
-      <c r="I2" t="n">
-        <v>90166.0890466784</v>
-      </c>
-      <c r="J2" t="n">
-        <v>90166.08904667842</v>
       </c>
       <c r="K2" t="n">
         <v>90166.08904667843</v>
       </c>
       <c r="L2" t="n">
-        <v>90166.08904667852</v>
+        <v>90166.08904667836</v>
       </c>
       <c r="M2" t="n">
         <v>90166.08904667843</v>
@@ -26353,7 +26353,7 @@
         <v>90166.08904667843</v>
       </c>
       <c r="P2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918555</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062222</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668199</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>200285.8640399294</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62456.24177539679</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43252.52447081119</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.32553668192</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>206802.1491945022</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57301.4717972857</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42200.82945962306</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190951</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190951</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001372</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001372</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358538.368304286</v>
+        <v>-354487.6962968715</v>
       </c>
       <c r="C6" t="n">
-        <v>-176333.4200124304</v>
+        <v>-180629.0392628164</v>
       </c>
       <c r="D6" t="n">
-        <v>-182925.4813521529</v>
+        <v>-190661.7705755442</v>
       </c>
       <c r="E6" t="n">
-        <v>-198426.4439618925</v>
+        <v>-198636.175508582</v>
       </c>
       <c r="F6" t="n">
-        <v>-86303.88248784796</v>
+        <v>-86513.61403453749</v>
       </c>
       <c r="G6" t="n">
-        <v>-175985.2967973131</v>
+        <v>-175985.2967973132</v>
       </c>
       <c r="H6" t="n">
-        <v>-128559.9712606312</v>
+        <v>-128559.9712606313</v>
       </c>
       <c r="I6" t="n">
-        <v>-128559.9712606312</v>
+        <v>-128559.9712606313</v>
       </c>
       <c r="J6" t="n">
-        <v>-341601.8888579164</v>
+        <v>-335085.6037033435</v>
       </c>
       <c r="K6" t="n">
         <v>-134799.7396634142</v>
       </c>
       <c r="L6" t="n">
-        <v>-189982.3285980354</v>
+        <v>-194031.1658085076</v>
       </c>
       <c r="M6" t="n">
-        <v>-170760.8007202543</v>
+        <v>-171812.4957314424</v>
       </c>
       <c r="N6" t="n">
-        <v>-128559.9712606312</v>
+        <v>-128559.9712606313</v>
       </c>
       <c r="O6" t="n">
-        <v>-156327.6653034025</v>
+        <v>-156327.6653034024</v>
       </c>
       <c r="P6" t="n">
         <v>-128559.9712606312</v>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095193</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26917,34 +26917,34 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.28165692085248</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34.709617553464</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924599</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287442</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.2816569208524</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34.70961755346406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660712</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551321</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348589</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773699</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407379</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348589</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,7 +27433,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>49.63703274282082</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>155.6710613267392</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.425141189258</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>172.8203157667167</v>
+        <v>250.3734897532252</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>20.54576299366488</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>310.3327335577678</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862736</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.677546498784068</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>20.47658781971813</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>64.12327167314601</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>79.12850580040697</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.47955495861621</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>24.1733394976992</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,28 +28743,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>35.71049010668753</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.71049010668843</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28983,19 +28983,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>86.65052755599447</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901221</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566017</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000712</v>
+        <v>43.49509683159934</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000712</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000712</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000712</v>
+        <v>76.79385455031328</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861253594</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,11 +30408,11 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,19 +30645,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>127.9147277268387</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586532</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>440.9310934046756</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344362</v>
+        <v>77.54012143340162</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344362</v>
+        <v>508.7612304376711</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>68.9543646874918</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776274</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>88.11079445971897</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>309.0320101492204</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36054,13 +36054,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.16725411684092</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133946</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O24" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625822</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>198.2933506465091</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047985</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7334829729924</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974398</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066589</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111303</v>
+        <v>230.2077838426585</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227379</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791211</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868811</v>
+        <v>159.4555122371233</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.37649167503</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496148</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102237</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.00106726098205</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38193,7 +38193,7 @@
         <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
